--- a/BackTest/2020-01-13 BackTest AMO.xlsx
+++ b/BackTest/2020-01-13 BackTest AMO.xlsx
@@ -11371,17 +11371,13 @@
         <v>0.2581116666666664</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>0.2564</v>
-      </c>
-      <c r="K314" t="n">
-        <v>0.2564</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
@@ -11410,788 +11406,696 @@
         <v>0.258063333333333</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="F316" t="n">
+        <v>885533.268</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.2580399999999997</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="F317" t="n">
+        <v>953339.367</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.2579999999999997</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
         <v>0.2568</v>
       </c>
-      <c r="K315" t="n">
-        <v>0.2564</v>
-      </c>
-      <c r="L315" t="inlineStr">
+      <c r="C318" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="F318" t="n">
+        <v>1368651.724</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.2579583333333331</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
+      <c r="M318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1385603.248</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.2579099999999998</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="F320" t="n">
+        <v>1521215.446</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.2578716666666664</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1508998.6125</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.2578399999999997</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
+      <c r="M321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="F322" t="n">
+        <v>1097427.327</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.2578099999999998</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
+      <c r="M322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="F323" t="n">
+        <v>927912.08</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.2577899999999997</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
+      <c r="M323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="F324" t="n">
+        <v>7721.2028</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.2577516666666664</v>
+      </c>
+      <c r="H324" t="n">
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
+      <c r="M324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="F325" t="n">
+        <v>1487312.397</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.2577133333333331</v>
+      </c>
+      <c r="H325" t="n">
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="L325" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="C316" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="D316" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="E316" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="F316" t="n">
-        <v>885533.268</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.2580399999999997</v>
-      </c>
-      <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K316" t="n">
-        <v>0.2564</v>
-      </c>
-      <c r="L316" t="inlineStr">
+      <c r="M325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="F326" t="n">
+        <v>1292369.862</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.2576916666666664</v>
+      </c>
+      <c r="H326" t="n">
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="L326" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
+      <c r="M326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="F327" t="n">
+        <v>817727.169</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.2576833333333331</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
+      <c r="M327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="F328" t="n">
+        <v>970290.892</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.2576533333333331</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
+      <c r="M328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="F329" t="n">
+        <v>987242.416</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.2576099999999998</v>
+      </c>
+      <c r="H329" t="n">
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
         <v>0.2567</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C330" t="n">
         <v>0.2567</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D330" t="n">
         <v>0.2567</v>
       </c>
-      <c r="E317" t="n">
+      <c r="E330" t="n">
         <v>0.2567</v>
       </c>
-      <c r="F317" t="n">
-        <v>953339.367</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.2579999999999997</v>
-      </c>
-      <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K317" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
+      <c r="F330" t="n">
+        <v>1207612.238</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.2575799999999998</v>
+      </c>
+      <c r="H330" t="n">
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
         <v>0.2568</v>
       </c>
-      <c r="C318" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="D318" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="E318" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="F318" t="n">
-        <v>1368651.724</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.2579583333333331</v>
-      </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="K318" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="L318" t="inlineStr">
+      <c r="K330" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="L330" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
+      <c r="M330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
         <v>0.2569</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C331" t="n">
         <v>0.2569</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D331" t="n">
         <v>0.2569</v>
       </c>
-      <c r="E319" t="n">
+      <c r="E331" t="n">
         <v>0.2569</v>
       </c>
-      <c r="F319" t="n">
-        <v>1385603.248</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.2579099999999998</v>
-      </c>
-      <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="n">
+      <c r="F331" t="n">
+        <v>1046572.753</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.2575533333333331</v>
+      </c>
+      <c r="H331" t="n">
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K331" t="n">
         <v>0.2569</v>
       </c>
-      <c r="K319" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="L319" t="inlineStr">
+      <c r="L331" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
+      <c r="M331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="F332" t="n">
+        <v>1012669.704</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.2575283333333331</v>
+      </c>
+      <c r="H332" t="n">
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
+      <c r="M332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.2585</v>
+      </c>
+      <c r="C333" t="n">
         <v>0.2566</v>
       </c>
-      <c r="C320" t="n">
+      <c r="D333" t="n">
+        <v>0.2585</v>
+      </c>
+      <c r="E333" t="n">
         <v>0.2566</v>
       </c>
-      <c r="D320" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="E320" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="F320" t="n">
-        <v>1521215.446</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.2578716666666664</v>
-      </c>
-      <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K320" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="C321" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="D321" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="E321" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="F321" t="n">
-        <v>1508998.6125</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.2578399999999997</v>
-      </c>
-      <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K321" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L321" t="inlineStr">
+      <c r="F333" t="n">
+        <v>2670217.3719</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.2574799999999998</v>
+      </c>
+      <c r="H333" t="n">
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="L333" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="C322" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="D322" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="E322" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="F322" t="n">
-        <v>1097427.327</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.2578099999999998</v>
-      </c>
-      <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="K322" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="C323" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="D323" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="E323" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="F323" t="n">
-        <v>927912.08</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.2577899999999997</v>
-      </c>
-      <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K323" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="C324" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="D324" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="E324" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="F324" t="n">
-        <v>7721.2028</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.2577516666666664</v>
-      </c>
-      <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="K324" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="C325" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="D325" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="E325" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="F325" t="n">
-        <v>1487312.397</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.2577133333333331</v>
-      </c>
-      <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="K325" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="C326" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="D326" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="E326" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="F326" t="n">
-        <v>1292369.862</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.2576916666666664</v>
-      </c>
-      <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K326" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="C327" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="D327" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="E327" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="F327" t="n">
-        <v>817727.169</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.2576833333333331</v>
-      </c>
-      <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="K327" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="C328" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="D328" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="E328" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="F328" t="n">
-        <v>970290.892</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.2576533333333331</v>
-      </c>
-      <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="K328" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="C329" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="D329" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="E329" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="F329" t="n">
-        <v>987242.416</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.2576099999999998</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="K329" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="C330" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="D330" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="E330" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="F330" t="n">
-        <v>1207612.238</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.2575799999999998</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K330" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="C331" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="D331" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="E331" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="F331" t="n">
-        <v>1046572.753</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.2575533333333331</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
-      <c r="J331" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="K331" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="C332" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="D332" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="E332" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="F332" t="n">
-        <v>1012669.704</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.2575283333333331</v>
-      </c>
-      <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K332" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>0.2585</v>
-      </c>
-      <c r="C333" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="D333" t="n">
-        <v>0.2585</v>
-      </c>
-      <c r="E333" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="F333" t="n">
-        <v>2670217.3719</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.2574799999999998</v>
-      </c>
-      <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="n">
-        <v>0.2585</v>
-      </c>
-      <c r="K333" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12219,16 +12123,14 @@
         <v>0.2574633333333332</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>0.2576</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>0.2566</v>
+        <v>0.2569</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -12269,7 +12171,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>0.2566</v>
+        <v>0.2569</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -12310,7 +12212,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>0.2566</v>
+        <v>0.2569</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -12344,16 +12246,14 @@
         <v>0.2573699999999998</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>0.2577</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>0.2566</v>
+        <v>0.2569</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -12387,16 +12287,14 @@
         <v>0.2573516666666665</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>0.258</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>0.2566</v>
+        <v>0.2569</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -12437,7 +12335,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>0.2566</v>
+        <v>0.2569</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -12478,7 +12376,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>0.2566</v>
+        <v>0.2569</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -12519,7 +12417,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>0.2566</v>
+        <v>0.2569</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -12556,89 +12454,101 @@
         <v>0</v>
       </c>
       <c r="I342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>0.2566</v>
+        <v>0.2569</v>
       </c>
       <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.2573</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.2573</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.2573</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.2573</v>
+      </c>
+      <c r="F343" t="n">
+        <v>1088951.565</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.2572483333333331</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.2584</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.2584</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.2584</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.2584</v>
+      </c>
+      <c r="F344" t="n">
+        <v>944863.605</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.2572283333333331</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="n">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="L344" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M342" t="n">
-        <v>1.001625097427903</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>0.2573</v>
-      </c>
-      <c r="C343" t="n">
-        <v>0.2573</v>
-      </c>
-      <c r="D343" t="n">
-        <v>0.2573</v>
-      </c>
-      <c r="E343" t="n">
-        <v>0.2573</v>
-      </c>
-      <c r="F343" t="n">
-        <v>1088951.565</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.2572483333333331</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="n">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>0.2584</v>
-      </c>
-      <c r="C344" t="n">
-        <v>0.2584</v>
-      </c>
-      <c r="D344" t="n">
-        <v>0.2584</v>
-      </c>
-      <c r="E344" t="n">
-        <v>0.2584</v>
-      </c>
-      <c r="F344" t="n">
-        <v>944863.605</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.2572283333333331</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
-        <v>1</v>
+        <v>1.000838847800701</v>
       </c>
     </row>
     <row r="345">
@@ -12667,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
@@ -12702,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>

--- a/BackTest/2020-01-13 BackTest AMO.xlsx
+++ b/BackTest/2020-01-13 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-15027502.45160001</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-15027502.45160001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-12415372.43960001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-13131390.45960001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-14305099.64860001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-14644130.14360001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-15699178.65860001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-17025451.57060001</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-17851654.50160001</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-16694896.83760001</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-17588905.86760001</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-16313487.53060001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-15080448.00560001</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-15855796.36260001</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-14851602.42160001</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-15754087.21460001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-16826087.25460001</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-15643902.30360002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-16792184.20560002</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-14741417.51160002</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-16078818.76960002</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-15849973.18460001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-16642273.06660001</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-17782079.20560001</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-16565991.20460001</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-15316000.15460001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-50717007.74581895</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>0.2578</v>
@@ -13919,7 +13919,7 @@
         <v>-49289025.68581895</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>0.2572</v>
@@ -13960,11 +13960,9 @@
         <v>-47988180.06181895</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>0.258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
         <v>0.2578</v>
       </c>
@@ -14166,14 +14164,10 @@
         <v>-52564356.14381895</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="J417" t="n">
-        <v>0.2578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
@@ -14206,14 +14200,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14245,14 +14233,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14284,14 +14266,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14323,14 +14299,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14362,14 +14332,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14401,14 +14365,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14440,14 +14398,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14479,14 +14431,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14518,14 +14464,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14557,14 +14497,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14596,14 +14530,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14635,14 +14563,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14674,14 +14596,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14713,14 +14629,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14752,14 +14662,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14791,14 +14695,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14830,14 +14728,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14869,14 +14761,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14908,14 +14794,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14947,14 +14827,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14986,14 +14860,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15025,14 +14893,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15064,14 +14926,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15103,14 +14959,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15142,14 +14992,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15181,14 +15025,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15220,14 +15058,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15259,14 +15091,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15298,14 +15124,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15337,14 +15157,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15376,14 +15190,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15415,14 +15223,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15454,14 +15256,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15493,14 +15289,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15532,14 +15322,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15571,14 +15355,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15610,14 +15388,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15649,14 +15421,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15688,14 +15454,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15727,14 +15487,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15766,14 +15520,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15805,14 +15553,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15844,14 +15586,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15883,14 +15619,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15922,14 +15652,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15961,14 +15685,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16000,14 +15718,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16039,14 +15751,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16078,14 +15784,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16117,14 +15817,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16156,14 +15850,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16195,14 +15883,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16234,14 +15916,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16273,14 +15949,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16312,14 +15982,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16351,14 +16015,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16390,14 +16048,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16429,14 +16081,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16468,14 +16114,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16507,14 +16147,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16546,14 +16180,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16585,14 +16213,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16624,14 +16246,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16663,14 +16279,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16702,14 +16312,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16741,14 +16345,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16780,14 +16378,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16819,14 +16411,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16858,14 +16444,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16897,14 +16477,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16936,14 +16510,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16975,14 +16543,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17014,14 +16576,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17053,14 +16609,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17092,14 +16642,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17131,14 +16675,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17170,14 +16708,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17209,14 +16741,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17248,14 +16774,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17287,14 +16807,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17326,14 +16840,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17365,14 +16873,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17404,14 +16906,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17443,14 +16939,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17482,14 +16972,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17521,14 +17005,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17560,14 +17038,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17599,14 +17071,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17638,14 +17104,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17677,14 +17137,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17716,14 +17170,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17755,14 +17203,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17794,14 +17236,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17833,14 +17269,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17872,14 +17302,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17911,14 +17335,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17950,14 +17368,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17989,14 +17401,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18028,14 +17434,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18067,14 +17467,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18106,14 +17500,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18145,14 +17533,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18184,14 +17566,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18223,14 +17599,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18262,14 +17632,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18301,14 +17665,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18340,14 +17698,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18379,14 +17731,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18418,14 +17764,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18457,14 +17797,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18496,14 +17830,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18535,14 +17863,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18574,14 +17896,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18613,14 +17929,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18652,14 +17962,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18691,14 +17995,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18730,14 +18028,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18769,14 +18061,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18808,14 +18094,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18847,14 +18127,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18886,14 +18160,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18925,14 +18193,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18964,14 +18226,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19003,14 +18259,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19042,14 +18292,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19081,14 +18325,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19120,14 +18358,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19159,14 +18391,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19198,14 +18424,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19237,14 +18457,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19276,14 +18490,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19315,14 +18523,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19354,14 +18556,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19393,14 +18589,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19432,14 +18622,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19471,14 +18655,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19510,14 +18688,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19549,14 +18721,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19588,14 +18754,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19627,14 +18787,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19666,14 +18820,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19705,14 +18853,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19744,14 +18886,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19783,14 +18919,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19822,14 +18952,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19861,14 +18985,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19900,14 +19018,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19939,14 +19051,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19978,14 +19084,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20017,14 +19117,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20056,14 +19150,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20095,14 +19183,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20134,14 +19216,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20173,14 +19249,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20212,14 +19282,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20251,14 +19315,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20290,14 +19348,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20329,14 +19381,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20368,14 +19414,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20407,14 +19447,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20446,14 +19480,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20485,14 +19513,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20524,14 +19546,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20563,14 +19579,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20602,14 +19612,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20641,14 +19645,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20680,14 +19678,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20719,14 +19711,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20758,14 +19744,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20797,14 +19777,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20836,14 +19810,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20875,14 +19843,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20914,14 +19876,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20953,14 +19909,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20992,14 +19942,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21031,14 +19975,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21070,14 +20008,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21109,14 +20041,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21148,14 +20074,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21187,14 +20107,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21226,14 +20140,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21265,14 +20173,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21304,14 +20206,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21343,14 +20239,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21382,14 +20272,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21421,14 +20305,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21460,14 +20338,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21499,14 +20371,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21538,14 +20404,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21577,14 +20437,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21616,14 +20470,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21655,14 +20503,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21694,14 +20536,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21733,14 +20569,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21772,14 +20602,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21811,14 +20635,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21850,14 +20668,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21889,14 +20701,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21928,14 +20734,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21967,14 +20767,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22006,14 +20800,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22045,14 +20833,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22084,14 +20866,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22123,14 +20899,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22162,14 +20932,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22201,14 +20965,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22240,14 +20998,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22279,14 +21031,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22318,14 +21064,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22357,14 +21097,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22396,14 +21130,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22435,14 +21163,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22474,14 +21196,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22513,14 +21229,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22552,14 +21262,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22591,14 +21295,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22630,14 +21328,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22669,14 +21361,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22708,14 +21394,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22747,14 +21427,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22786,14 +21460,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22825,14 +21493,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22864,14 +21526,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22903,14 +21559,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22942,14 +21592,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22981,14 +21625,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23020,14 +21658,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23059,14 +21691,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23098,14 +21724,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23137,14 +21757,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23176,14 +21790,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23215,14 +21823,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23254,14 +21856,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23293,14 +21889,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23332,14 +21922,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23371,14 +21955,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23410,14 +21988,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23449,14 +22021,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23488,14 +22054,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23527,14 +22087,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23566,14 +22120,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23605,14 +22153,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23644,14 +22186,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23683,14 +22219,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23722,14 +22252,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23761,14 +22285,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23800,14 +22318,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23839,14 +22351,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23878,14 +22384,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23917,14 +22417,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23956,14 +22450,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23995,14 +22483,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24034,14 +22516,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24073,14 +22549,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24112,14 +22582,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24151,14 +22615,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24190,14 +22648,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24229,14 +22681,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24268,14 +22714,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24307,14 +22747,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24346,14 +22780,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24385,14 +22813,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24424,14 +22846,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24463,14 +22879,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24502,14 +22912,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24541,14 +22945,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24580,14 +22978,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24619,14 +23011,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24658,14 +23044,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24697,14 +23077,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24736,14 +23110,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24775,14 +23143,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24814,14 +23176,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24853,14 +23209,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24892,14 +23242,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24931,14 +23275,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24970,14 +23308,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25009,14 +23341,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25048,14 +23374,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25087,14 +23407,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25126,14 +23440,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25165,14 +23473,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25204,14 +23506,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25243,14 +23539,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25282,14 +23572,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25321,14 +23605,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25360,20 +23638,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
       <c r="M704" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest AMO.xlsx
+++ b/BackTest/2020-01-13 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>-15027502.45160001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-12415372.43960001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-13131390.45960001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-14305099.64860001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-14644130.14360001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-15699178.65860001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-17025451.57060001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-17851654.50160001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-16694896.83760001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-17588905.86760001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-16313487.53060001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-15080448.00560001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-15855796.36260001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-14851602.42160001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-15754087.21460001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-16826087.25460001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-15643902.30360002</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-16792184.20560002</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-15849973.18460001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-16642273.06660001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-17782079.20560001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-16565991.20460001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-15316000.15460001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -13288,10 +13288,14 @@
         <v>-50832619.50030003</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.2569</v>
+      </c>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
@@ -13321,11 +13325,19 @@
         <v>-53502836.87220003</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13357,8 +13369,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13390,8 +13408,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13423,8 +13447,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13456,8 +13486,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13489,8 +13525,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13522,8 +13564,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13555,8 +13603,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13588,8 +13642,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13621,8 +13681,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13654,8 +13720,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13687,8 +13759,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13720,8 +13798,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13753,8 +13837,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13786,8 +13876,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13819,8 +13915,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13852,8 +13954,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,15 +13990,17 @@
         <v>-50717007.74581895</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>0.2578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>0.2578</v>
-      </c>
-      <c r="K409" t="inlineStr"/>
+        <v>0.2569</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,17 +14029,15 @@
         <v>-49289025.68581895</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>0.2572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>0.2578</v>
+        <v>0.2569</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L410" t="n">
@@ -13964,11 +14072,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>0.2578</v>
+        <v>0.2569</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L411" t="n">
@@ -14002,8 +14110,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14035,8 +14149,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14068,8 +14188,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14101,8 +14227,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14134,8 +14266,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14167,8 +14305,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14200,8 +14344,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14233,8 +14383,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14266,8 +14422,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14299,8 +14461,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14332,8 +14500,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14365,8 +14539,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14398,8 +14578,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14428,13 +14614,19 @@
         <v>-53957210.35219438</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L425" t="n">
-        <v>1</v>
+        <v>0.99616776956014</v>
       </c>
       <c r="M425" t="inlineStr"/>
     </row>
@@ -14461,7 +14653,7 @@
         <v>-52546179.81719439</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14494,7 +14686,7 @@
         <v>-51228382.66819439</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14659,7 +14851,7 @@
         <v>-52211053.41119439</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14725,7 +14917,7 @@
         <v>-52389044.42119439</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14758,7 +14950,7 @@
         <v>-53732268.85719439</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14791,7 +14983,7 @@
         <v>-54999211.43219439</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15154,7 +15346,7 @@
         <v>-58262012.1481944</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17299,7 +17491,7 @@
         <v>-61803708.37949441</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19708,10 +19900,14 @@
         <v>-66633898.52273225</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>0.2583</v>
+      </c>
+      <c r="J585" t="n">
+        <v>0.2583</v>
+      </c>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
@@ -19744,8 +19940,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>0.2583</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19777,8 +19979,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>0.2583</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23646,6 +23854,6 @@
       <c r="M704" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest AMO.xlsx
+++ b/BackTest/2020-01-13 BackTest AMO.xlsx
@@ -1243,7 +1243,7 @@
         <v>-14305099.64860001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-15699178.65860001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-17025451.57060001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-17851654.50160001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-16694896.83760001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-17588905.86760001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-15754087.21460001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-16826087.25460001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-16792184.20560002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-14741417.51160002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-16078818.76960002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-17244052.19560001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-16642273.06660001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -13288,14 +13288,10 @@
         <v>-50832619.50030003</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>0.2569</v>
-      </c>
-      <c r="J391" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
@@ -13330,9 +13326,7 @@
       <c r="I392" t="n">
         <v>0.2567</v>
       </c>
-      <c r="J392" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -13369,9 +13363,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13408,9 +13400,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13447,9 +13437,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13486,9 +13474,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13525,9 +13511,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13564,9 +13548,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13603,9 +13585,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13639,12 +13619,12 @@
         <v>-49473525.06390003</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.2562</v>
+      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13681,9 +13661,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13720,9 +13698,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13759,9 +13735,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13798,9 +13772,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13837,9 +13809,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13876,9 +13846,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13915,9 +13883,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13954,9 +13920,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13990,12 +13954,12 @@
         <v>-50717007.74581895</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.2578</v>
+      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14029,12 +13993,12 @@
         <v>-49289025.68581895</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.2572</v>
+      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14068,12 +14032,12 @@
         <v>-47988180.06181895</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14107,12 +14071,12 @@
         <v>-48755052.65681895</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0.2588</v>
+      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14146,12 +14110,12 @@
         <v>-49504973.72681895</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0.2582</v>
+      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14185,12 +14149,12 @@
         <v>-48780479.94381895</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.2581</v>
+      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14224,12 +14188,12 @@
         <v>-50259316.57781895</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.2589</v>
+      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14263,12 +14227,12 @@
         <v>-51500831.86581896</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.2579</v>
+      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14302,12 +14266,12 @@
         <v>-52564356.14381895</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.2578</v>
+      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14341,12 +14305,12 @@
         <v>-51616067.95419439</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14383,9 +14347,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14422,9 +14384,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14461,9 +14421,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14497,12 +14455,12 @@
         <v>-51912719.63719439</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.2574</v>
+      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14539,9 +14497,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14575,12 +14531,12 @@
         <v>-52537704.05419438</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.2588</v>
+      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14614,19 +14570,17 @@
         <v>-53957210.35219438</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>0.2569</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L425" t="n">
-        <v>0.99616776956014</v>
+        <v>1</v>
       </c>
       <c r="M425" t="inlineStr"/>
     </row>
@@ -14653,11 +14607,17 @@
         <v>-52546179.81719439</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.2572</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14686,11 +14646,15 @@
         <v>-51228382.66819439</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14723,7 +14687,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14756,7 +14724,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14789,7 +14761,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14822,7 +14798,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14851,11 +14831,15 @@
         <v>-52211053.41119439</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14888,7 +14872,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14917,11 +14905,15 @@
         <v>-52389044.42119439</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14950,11 +14942,15 @@
         <v>-53732268.85719439</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14983,11 +14979,17 @@
         <v>-54999211.43219439</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.2577</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15020,7 +15022,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15053,7 +15059,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15086,7 +15096,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15119,7 +15133,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15152,7 +15170,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15185,7 +15207,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15218,7 +15244,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15251,7 +15281,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15284,7 +15318,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15317,7 +15355,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15346,11 +15388,15 @@
         <v>-58262012.1481944</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15383,7 +15429,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15416,7 +15466,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15449,7 +15503,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15482,7 +15540,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15515,7 +15577,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15548,7 +15614,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15581,7 +15651,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15614,7 +15688,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15647,7 +15725,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15680,7 +15762,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15713,7 +15799,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15746,7 +15836,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15779,7 +15873,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15812,7 +15910,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15845,7 +15947,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15878,7 +15984,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15911,7 +16021,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15944,7 +16058,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15977,7 +16095,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16010,7 +16132,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16043,7 +16169,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16076,7 +16206,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16109,7 +16243,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16142,7 +16280,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16175,7 +16317,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16208,7 +16354,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16241,7 +16391,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16274,7 +16428,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16307,7 +16465,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16340,7 +16502,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16373,7 +16539,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16406,7 +16576,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16439,7 +16613,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16472,7 +16650,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16505,7 +16687,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16538,7 +16724,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16571,7 +16761,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16604,7 +16798,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16637,7 +16835,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16670,7 +16872,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16703,7 +16909,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16736,7 +16946,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16769,7 +16983,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16802,7 +17020,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16835,7 +17057,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16868,7 +17094,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16901,7 +17131,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16934,7 +17168,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16967,7 +17205,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17000,7 +17242,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17033,7 +17279,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17066,7 +17316,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17099,7 +17353,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17132,7 +17390,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17165,7 +17427,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17198,7 +17464,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17231,7 +17501,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17264,7 +17538,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17297,7 +17575,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17330,7 +17612,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17363,7 +17649,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17396,7 +17686,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17429,7 +17723,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17462,7 +17760,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17491,11 +17793,15 @@
         <v>-61803708.37949441</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17528,7 +17834,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17561,7 +17871,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17594,7 +17908,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17627,7 +17945,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17660,7 +17982,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17693,7 +18019,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17726,7 +18056,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17759,7 +18093,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17792,7 +18130,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17825,7 +18167,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17858,7 +18204,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17891,7 +18241,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17924,7 +18278,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17957,7 +18315,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17990,7 +18352,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18023,7 +18389,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18056,7 +18426,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18089,7 +18463,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18122,7 +18500,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18155,7 +18537,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18188,7 +18574,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18221,7 +18611,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18254,7 +18648,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18287,7 +18685,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18320,7 +18722,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18353,7 +18759,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18386,7 +18796,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18419,7 +18833,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18452,7 +18870,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18485,7 +18907,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18518,7 +18944,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18551,7 +18981,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18584,7 +19018,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18617,7 +19055,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18650,7 +19092,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18683,7 +19129,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18716,7 +19166,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18749,7 +19203,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18782,7 +19240,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18815,7 +19277,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18848,7 +19314,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18881,7 +19351,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18914,7 +19388,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18947,7 +19425,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18980,7 +19462,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19013,7 +19499,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19046,7 +19536,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19079,7 +19573,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19112,7 +19610,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19145,7 +19647,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19178,7 +19684,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19211,7 +19721,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19244,7 +19758,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19277,7 +19795,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19310,7 +19832,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19343,7 +19869,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19376,7 +19906,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19409,7 +19943,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19438,11 +19976,17 @@
         <v>-66335142.56553224</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0.2577</v>
+      </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19475,7 +20019,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19508,7 +20056,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19541,7 +20093,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19574,7 +20130,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19607,7 +20167,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19640,7 +20204,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19673,7 +20241,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19706,7 +20278,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19739,7 +20315,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19772,7 +20352,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19805,7 +20389,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19838,7 +20426,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19871,7 +20463,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19900,15 +20496,15 @@
         <v>-66633898.52273225</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>0.2583</v>
-      </c>
-      <c r="J585" t="n">
-        <v>0.2583</v>
-      </c>
-      <c r="K585" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19940,12 +20536,10 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>0.2583</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L586" t="n">
@@ -19979,12 +20573,10 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>0.2583</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L587" t="n">
@@ -20019,7 +20611,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20052,7 +20648,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20085,7 +20685,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20118,7 +20722,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20151,7 +20759,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20184,7 +20796,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20217,7 +20833,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20250,7 +20870,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20283,7 +20907,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20316,7 +20944,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20349,7 +20981,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20382,7 +21018,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20415,7 +21055,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20448,7 +21092,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20481,7 +21129,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20514,7 +21166,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20547,7 +21203,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20580,7 +21240,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20613,7 +21277,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20646,7 +21314,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20679,7 +21351,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20712,7 +21388,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20745,7 +21425,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20778,7 +21462,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20811,7 +21499,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20844,7 +21536,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20877,7 +21573,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20910,7 +21610,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20943,7 +21647,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20976,7 +21684,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21009,7 +21721,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21042,7 +21758,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21075,7 +21795,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21108,7 +21832,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21141,7 +21869,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21174,7 +21906,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21207,7 +21943,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21240,7 +21980,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21273,7 +22017,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21306,7 +22054,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21339,7 +22091,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21372,7 +22128,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21405,7 +22165,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21438,7 +22202,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21471,7 +22239,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21504,7 +22276,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21537,7 +22313,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21570,7 +22350,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21603,7 +22387,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21636,7 +22424,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21669,7 +22461,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21702,7 +22498,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21735,7 +22535,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21768,7 +22572,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21801,7 +22609,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21834,7 +22646,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21867,7 +22683,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21900,7 +22720,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21933,7 +22757,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21966,7 +22794,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21999,7 +22831,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22032,7 +22868,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22065,7 +22905,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22098,7 +22942,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22131,7 +22979,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22164,7 +23016,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22197,7 +23053,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22230,7 +23090,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22263,7 +23127,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22296,7 +23164,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22329,7 +23201,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22362,7 +23238,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22395,7 +23275,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22428,7 +23312,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22461,7 +23349,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22494,7 +23386,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22527,7 +23423,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22560,7 +23460,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22593,7 +23497,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22626,7 +23534,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22659,7 +23571,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22692,7 +23608,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22725,7 +23645,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22758,7 +23682,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22791,7 +23719,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22824,7 +23756,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22857,7 +23793,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22890,7 +23830,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22923,7 +23867,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22956,7 +23904,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22989,7 +23941,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23022,7 +23978,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23055,7 +24015,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23088,7 +24052,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23121,7 +24089,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23154,7 +24126,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23187,7 +24163,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23220,7 +24200,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23253,7 +24237,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23286,7 +24274,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23319,7 +24311,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23352,7 +24348,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23385,7 +24385,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23418,7 +24422,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23451,7 +24459,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23484,7 +24496,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23517,7 +24533,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23550,7 +24570,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23583,7 +24607,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23616,7 +24644,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23649,7 +24681,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23682,7 +24718,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23715,7 +24755,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23748,7 +24792,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23781,7 +24829,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23814,7 +24866,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23847,7 +24903,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
